--- a/Easy Account Manager (EAM)/inventario_cuentas.xlsx
+++ b/Easy Account Manager (EAM)/inventario_cuentas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Fecha Fin</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Privilegio</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Servicio</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -495,6 +505,50 @@
         <is>
           <t>Actualmente Trabajando</t>
         </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Anna Doe</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>adoe</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>RRHH</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Sueldos</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23/09/2023</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Actualmente Trabajando</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Easy Account Manager (EAM)/inventario_cuentas.xlsx
+++ b/Easy Account Manager (EAM)/inventario_cuentas.xlsx
@@ -531,12 +531,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sueldos</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
